--- a/mbs-EP-v.1.0.3 - changable version/Excel Files/flyball_governor/flyball_governor_damper_spring.xlsx
+++ b/mbs-EP-v.1.0.3 - changable version/Excel Files/flyball_governor/flyball_governor_damper_spring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.2\Excel Files\flyball_governor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.3 - changable version\Excel Files\flyball_governor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201C8510-36A0-4FF2-BB59-E5A28B44AEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F7EBDE-01E8-48E3-A601-F459B7E3CC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="256">
   <si>
     <t>Mass</t>
   </si>
@@ -1337,6 +1337,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1376,21 +1412,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1448,46 +1469,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1499,21 +1508,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1523,6 +1529,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1532,58 +1577,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2022,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,44 +2042,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
-      <c r="J2" s="116" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="J2" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="94"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="50">
         <v>10</v>
       </c>
       <c r="E3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="95" t="s">
+      <c r="J3" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="96"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="95" t="s">
+      <c r="K3" s="87"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="96"/>
-      <c r="O3" s="88"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="100"/>
       <c r="P3" s="44" t="s">
         <v>154</v>
       </c>
@@ -2088,10 +2088,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="94"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="50">
         <v>1E-3</v>
       </c>
@@ -2104,14 +2104,14 @@
       <c r="K4" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="121"/>
+      <c r="L4" s="89"/>
       <c r="M4" s="43" t="s">
         <v>125</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="O4" s="89"/>
+      <c r="O4" s="101"/>
       <c r="P4" s="44" t="s">
         <v>155</v>
       </c>
@@ -2120,10 +2120,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="94"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="50" t="s">
         <v>79</v>
       </c>
@@ -2136,14 +2136,14 @@
       <c r="K5" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="121"/>
+      <c r="L5" s="89"/>
       <c r="M5" s="44" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="89"/>
+      <c r="O5" s="101"/>
       <c r="P5" s="44" t="s">
         <v>156</v>
       </c>
@@ -2152,10 +2152,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="94"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="50" t="s">
         <v>3</v>
       </c>
@@ -2168,14 +2168,14 @@
       <c r="K6" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="121"/>
+      <c r="L6" s="89"/>
       <c r="M6" s="44" t="s">
         <v>127</v>
       </c>
       <c r="N6" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="O6" s="89"/>
+      <c r="O6" s="101"/>
       <c r="P6" s="44" t="s">
         <v>160</v>
       </c>
@@ -2184,10 +2184,10 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="94"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="50">
         <v>-9806.5</v>
       </c>
@@ -2200,14 +2200,14 @@
       <c r="K7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="121"/>
+      <c r="L7" s="89"/>
       <c r="M7" s="44" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="89"/>
+      <c r="O7" s="101"/>
       <c r="P7" s="44" t="s">
         <v>159</v>
       </c>
@@ -2216,10 +2216,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="94"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="50" t="s">
         <v>123</v>
       </c>
@@ -2232,14 +2232,14 @@
       <c r="K8" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="121"/>
+      <c r="L8" s="89"/>
       <c r="M8" s="44" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="89"/>
+      <c r="O8" s="101"/>
       <c r="P8" s="44" t="s">
         <v>163</v>
       </c>
@@ -2248,10 +2248,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="94"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="50"/>
       <c r="E9" s="51" t="s">
         <v>117</v>
@@ -2262,14 +2262,14 @@
       <c r="K9" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="121"/>
+      <c r="L9" s="89"/>
       <c r="M9" s="44" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="89"/>
+      <c r="O9" s="101"/>
       <c r="P9" s="44" t="s">
         <v>164</v>
       </c>
@@ -2284,14 +2284,14 @@
       <c r="K10" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="121"/>
+      <c r="L10" s="89"/>
       <c r="M10" s="44" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="89"/>
+      <c r="O10" s="101"/>
       <c r="P10" s="49" t="s">
         <v>165</v>
       </c>
@@ -2302,14 +2302,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="53"/>
       <c r="K11" s="54"/>
-      <c r="L11" s="121"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="44" t="s">
         <v>129</v>
       </c>
       <c r="N11" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="O11" s="89"/>
+      <c r="O11" s="101"/>
       <c r="P11" s="49" t="s">
         <v>166</v>
       </c>
@@ -2318,25 +2318,25 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
       <c r="J12" s="55"/>
       <c r="K12" s="56"/>
-      <c r="L12" s="121"/>
+      <c r="L12" s="89"/>
       <c r="M12" s="44" t="s">
         <v>130</v>
       </c>
       <c r="N12" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="O12" s="89"/>
+      <c r="O12" s="101"/>
       <c r="P12" s="44" t="s">
         <v>171</v>
       </c>
@@ -2345,29 +2345,29 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="92"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="66" t="s">
         <v>232</v>
       </c>
       <c r="E13" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
       <c r="J13" s="55"/>
       <c r="K13" s="56"/>
-      <c r="L13" s="121"/>
+      <c r="L13" s="89"/>
       <c r="M13" s="44" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="89"/>
+      <c r="O13" s="101"/>
       <c r="P13" s="49" t="s">
         <v>172</v>
       </c>
@@ -2376,27 +2376,27 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="92"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="66"/>
       <c r="E14" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
       <c r="J14" s="57"/>
       <c r="K14" s="58"/>
-      <c r="L14" s="121"/>
+      <c r="L14" s="89"/>
       <c r="M14" s="44" t="s">
         <v>131</v>
       </c>
       <c r="N14" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="O14" s="89"/>
+      <c r="O14" s="101"/>
       <c r="P14" s="49" t="s">
         <v>173</v>
       </c>
@@ -2405,29 +2405,29 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="92"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="66"/>
       <c r="E15" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="J15" s="95" t="s">
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="J15" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="96"/>
-      <c r="L15" s="121"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="89"/>
       <c r="M15" s="44" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="89"/>
+      <c r="O15" s="101"/>
       <c r="P15" s="49" t="s">
         <v>174</v>
       </c>
@@ -2436,33 +2436,33 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="66" t="s">
         <v>232</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
       <c r="J16" s="44" t="s">
         <v>90</v>
       </c>
       <c r="K16" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="121"/>
+      <c r="L16" s="89"/>
       <c r="M16" s="44" t="s">
         <v>132</v>
       </c>
       <c r="N16" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="O16" s="89"/>
+      <c r="O16" s="101"/>
       <c r="P16" s="44" t="s">
         <v>179</v>
       </c>
@@ -2471,31 +2471,31 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="92"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="66" t="s">
         <v>232</v>
       </c>
       <c r="E17" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
       <c r="J17" s="44" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="121"/>
-      <c r="M17" s="95" t="s">
+      <c r="L17" s="89"/>
+      <c r="M17" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="N17" s="96"/>
-      <c r="O17" s="89"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="101"/>
       <c r="P17" s="49" t="s">
         <v>180</v>
       </c>
@@ -2504,33 +2504,33 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="91"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="66" t="s">
         <v>232</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
       <c r="J18" s="44" t="s">
         <v>91</v>
       </c>
       <c r="K18" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="L18" s="121"/>
+      <c r="L18" s="89"/>
       <c r="M18" s="52" t="s">
         <v>153</v>
       </c>
       <c r="N18" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="O18" s="89"/>
+      <c r="O18" s="101"/>
       <c r="P18" s="49" t="s">
         <v>181</v>
       </c>
@@ -2539,31 +2539,31 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="91"/>
+      <c r="C19" s="103"/>
       <c r="D19" s="66"/>
       <c r="E19" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
       <c r="J19" s="44" t="s">
         <v>92</v>
       </c>
       <c r="K19" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="121"/>
+      <c r="L19" s="89"/>
       <c r="M19" s="45" t="s">
         <v>145</v>
       </c>
       <c r="N19" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="O19" s="89"/>
+      <c r="O19" s="101"/>
       <c r="P19" s="49" t="s">
         <v>182</v>
       </c>
@@ -2572,33 +2572,31 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="91" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="47" t="s">
-        <v>232</v>
-      </c>
+      <c r="C20" s="93"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
       <c r="J20" s="44" t="s">
         <v>98</v>
       </c>
       <c r="K20" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="121"/>
+      <c r="L20" s="89"/>
       <c r="M20" s="45" t="s">
         <v>146</v>
       </c>
       <c r="N20" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="89"/>
+      <c r="O20" s="101"/>
       <c r="P20" s="44" t="s">
         <v>187</v>
       </c>
@@ -2607,31 +2605,31 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="80" t="s">
         <v>242</v>
       </c>
-      <c r="C21" s="92"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="48"/>
       <c r="E21" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
       <c r="J21" s="44" t="s">
         <v>93</v>
       </c>
       <c r="K21" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="L21" s="121"/>
+      <c r="L21" s="89"/>
       <c r="M21" s="45" t="s">
         <v>147</v>
       </c>
       <c r="N21" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="O21" s="89"/>
+      <c r="O21" s="101"/>
       <c r="P21" s="49" t="s">
         <v>188</v>
       </c>
@@ -2640,35 +2638,35 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="99"/>
+      <c r="C22" s="106"/>
       <c r="D22" s="66">
         <v>2</v>
       </c>
-      <c r="E22" s="104" t="s">
+      <c r="E22" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="107" t="s">
+      <c r="F22" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="108"/>
-      <c r="H22" s="109"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="116"/>
       <c r="J22" s="31" t="s">
         <v>104</v>
       </c>
       <c r="K22" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="122"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="45" t="s">
         <v>148</v>
       </c>
       <c r="N22" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="O22" s="89"/>
+      <c r="O22" s="101"/>
       <c r="P22" s="49" t="s">
         <v>189</v>
       </c>
@@ -2677,21 +2675,21 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="100"/>
-      <c r="C23" s="101"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="66">
         <v>3</v>
       </c>
-      <c r="E23" s="105"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="112"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="89"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="119"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="101"/>
       <c r="P23" s="49" t="s">
         <v>190</v>
       </c>
@@ -2700,19 +2698,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="100"/>
-      <c r="C24" s="101"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="66"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="112"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="89"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="119"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="101"/>
       <c r="P24" s="31" t="s">
         <v>196</v>
       </c>
@@ -2721,19 +2719,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="100"/>
-      <c r="C25" s="101"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="66"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="112"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="89"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="119"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="101"/>
       <c r="P25" s="31" t="s">
         <v>200</v>
       </c>
@@ -2742,19 +2740,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="100"/>
-      <c r="C26" s="101"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="66"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="112"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="89"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="119"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="101"/>
       <c r="P26" s="31" t="s">
         <v>201</v>
       </c>
@@ -2763,19 +2761,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="100"/>
-      <c r="C27" s="101"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="66"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="112"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="89"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="119"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="101"/>
       <c r="P27" s="31" t="s">
         <v>202</v>
       </c>
@@ -2784,19 +2782,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="100"/>
-      <c r="C28" s="101"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="66"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="112"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="89"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="119"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="101"/>
       <c r="P28" s="31" t="s">
         <v>204</v>
       </c>
@@ -2805,19 +2803,19 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="102"/>
-      <c r="C29" s="103"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
       <c r="D29" s="66"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="115"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="89"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="122"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="101"/>
       <c r="P29" s="31" t="s">
         <v>203</v>
       </c>
@@ -2826,12 +2824,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="82"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="89"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="101"/>
       <c r="P30" s="31" t="s">
         <v>205</v>
       </c>
@@ -2840,12 +2838,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="82"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="89"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="101"/>
       <c r="P31" s="31" t="s">
         <v>206</v>
       </c>
@@ -2854,12 +2852,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="82"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="89"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="101"/>
       <c r="P32" s="31" t="s">
         <v>207</v>
       </c>
@@ -2868,12 +2866,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="82"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="89"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="101"/>
       <c r="P33" s="31" t="s">
         <v>208</v>
       </c>
@@ -2882,12 +2880,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="82"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="89"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="101"/>
       <c r="P34" s="31" t="s">
         <v>209</v>
       </c>
@@ -2896,12 +2894,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="82"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="89"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="101"/>
       <c r="P35" s="31" t="s">
         <v>210</v>
       </c>
@@ -2910,12 +2908,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="82"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="89"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="96"/>
+      <c r="O36" s="101"/>
       <c r="P36" s="31" t="s">
         <v>219</v>
       </c>
@@ -2924,12 +2922,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="82"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="89"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="96"/>
+      <c r="O37" s="101"/>
       <c r="P37" s="31" t="s">
         <v>220</v>
       </c>
@@ -2938,12 +2936,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="85"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="86"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="89"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="99"/>
+      <c r="O38" s="101"/>
       <c r="P38" s="31" t="s">
         <v>221</v>
       </c>
@@ -2961,6 +2959,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F13:H21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:H29"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2976,21 +2989,6 @@
     <mergeCell ref="L3:L22"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J23:N38"/>
-    <mergeCell ref="O3:O38"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="F13:H21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3022,118 +3020,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="97"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="92" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92" t="s">
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92" t="s">
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92" t="s">
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="92"/>
-      <c r="AF1" s="92"/>
-      <c r="AG1" s="92"/>
-      <c r="AH1" s="92"/>
-      <c r="AI1" s="92"/>
-      <c r="AJ1" s="92"/>
-      <c r="AK1" s="92"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="125" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125" t="s">
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125" t="s">
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="92" t="s">
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92" t="s">
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="126" t="s">
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="125" t="s">
+      <c r="S2" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="92" t="s">
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="90" t="s">
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="123"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="92" t="s">
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92" t="s">
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92" t="s">
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3187,8 +3185,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="126"/>
-      <c r="S3" s="124"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="123"/>
       <c r="T3" s="16" t="s">
         <v>59</v>
       </c>
@@ -6874,6 +6872,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -6887,12 +6891,6 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6924,16 +6922,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6964,11 +6962,11 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -7024,19 +7022,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -7061,16 +7059,16 @@
       <c r="E6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="133" t="s">
+      <c r="F6" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="134"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="133" t="s">
+      <c r="G6" s="131"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -7106,22 +7104,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -7146,21 +7144,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="129" t="s">
+      <c r="F9" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="127" t="s">
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127" t="s">
+      <c r="J9" s="129"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="129" t="s">
         <v>247</v>
       </c>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="129"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7214,19 +7212,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7251,16 +7249,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="129" t="s">
+      <c r="F13" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="127" t="s">
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7402,19 +7400,19 @@
       <c r="X17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -7439,16 +7437,16 @@
       <c r="E19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="129" t="s">
+      <c r="F19" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="127" t="s">
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="129"/>
     </row>
     <row r="20" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
@@ -7485,19 +7483,19 @@
       <c r="X21" s="10"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="128" t="s">
+      <c r="A22" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="127"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
@@ -7522,16 +7520,16 @@
       <c r="E23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="129" t="s">
+      <c r="F23" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="127" t="s">
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="129"/>
     </row>
     <row r="24" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
@@ -7567,22 +7565,22 @@
     </row>
     <row r="25" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="128" t="s">
+      <c r="A26" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="128"/>
-      <c r="N26" s="128"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="127"/>
     </row>
     <row r="27" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
@@ -7600,44 +7598,44 @@
       <c r="E27" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="129" t="s">
+      <c r="F27" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="127" t="s">
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="127"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127" t="s">
+      <c r="J27" s="129"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="M27" s="127"/>
-      <c r="N27" s="127"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
     </row>
     <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="128" t="s">
+      <c r="A30" s="127" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="128"/>
-      <c r="O30" s="128"/>
-      <c r="P30" s="128"/>
-      <c r="Q30" s="128"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="127"/>
+      <c r="O30" s="127"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="127"/>
     </row>
     <row r="31" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
@@ -7655,26 +7653,26 @@
       <c r="E31" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="133" t="s">
+      <c r="F31" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="134"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="133" t="s">
+      <c r="G31" s="131"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="134"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="127" t="s">
+      <c r="J31" s="131"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="M31" s="127"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127" t="s">
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
+      <c r="P31" s="129"/>
+      <c r="Q31" s="129"/>
     </row>
     <row r="32" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
@@ -7709,14 +7707,14 @@
       <c r="R33"/>
     </row>
     <row r="34" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="128" t="s">
+      <c r="A34" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="128"/>
-      <c r="C34" s="128"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
       <c r="G34" s="11"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
@@ -7793,12 +7791,12 @@
       <c r="X37" s="10"/>
     </row>
     <row r="38" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="128" t="s">
+      <c r="A38" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="128"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -7864,15 +7862,15 @@
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="130" t="s">
+      <c r="A42" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="131"/>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="132"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="135"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="67" t="s">
@@ -7887,11 +7885,11 @@
       <c r="D43" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="127" t="s">
+      <c r="E43" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="127"/>
-      <c r="G43" s="127"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129"/>
     </row>
     <row r="44" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="46"/>
@@ -8062,21 +8060,6 @@
     <row r="65" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="F23:H23"/>
@@ -8093,6 +8076,21 @@
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="L31:N31"/>
     <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -8162,11 +8160,11 @@
       <c r="E2" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="127" t="s">
+      <c r="F2" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
       <c r="I2" s="73" t="s">
         <v>252</v>
       </c>
@@ -8213,7 +8211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -8262,35 +8260,35 @@
       <c r="S1" s="137"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="128"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="138" t="s">
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="140" t="s">
         <v>245</v>
       </c>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="140"/>
-      <c r="AB2" s="152" t="s">
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="142"/>
+      <c r="AB2" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" s="153"/>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="154"/>
+      <c r="AC2" s="144"/>
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="145"/>
     </row>
     <row r="3" spans="1:33" s="34" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
@@ -8308,16 +8306,16 @@
       <c r="E3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="147" t="s">
+      <c r="F3" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="148"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="141" t="s">
+      <c r="G3" s="159"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="142"/>
-      <c r="K3" s="143"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="158"/>
       <c r="L3" s="64" t="s">
         <v>240</v>
       </c>
@@ -8336,16 +8334,16 @@
       <c r="Q3" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="150" t="s">
+      <c r="R3" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="S3" s="150"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="157"/>
+      <c r="S3" s="160"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="147"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="147"/>
+      <c r="AG3" s="148"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" s="46" t="s">
@@ -8387,12 +8385,12 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="AB4" s="155"/>
-      <c r="AC4" s="156"/>
-      <c r="AD4" s="156"/>
-      <c r="AE4" s="156"/>
-      <c r="AF4" s="156"/>
-      <c r="AG4" s="157"/>
+      <c r="AB4" s="146"/>
+      <c r="AC4" s="147"/>
+      <c r="AD4" s="147"/>
+      <c r="AE4" s="147"/>
+      <c r="AF4" s="147"/>
+      <c r="AG4" s="148"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
@@ -8436,20 +8434,20 @@
       <c r="Q5" s="46"/>
       <c r="R5" s="46"/>
       <c r="S5" s="46"/>
-      <c r="AB5" s="155"/>
-      <c r="AC5" s="156"/>
-      <c r="AD5" s="156"/>
-      <c r="AE5" s="156"/>
-      <c r="AF5" s="156"/>
-      <c r="AG5" s="157"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="147"/>
+      <c r="AD5" s="147"/>
+      <c r="AE5" s="147"/>
+      <c r="AF5" s="147"/>
+      <c r="AG5" s="148"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB6" s="155"/>
-      <c r="AC6" s="156"/>
-      <c r="AD6" s="156"/>
-      <c r="AE6" s="156"/>
-      <c r="AF6" s="156"/>
-      <c r="AG6" s="157"/>
+      <c r="AB6" s="146"/>
+      <c r="AC6" s="147"/>
+      <c r="AD6" s="147"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="147"/>
+      <c r="AG6" s="148"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="136" t="s">
@@ -8472,40 +8470,40 @@
       <c r="P7" s="137"/>
       <c r="Q7" s="137"/>
       <c r="R7" s="137"/>
-      <c r="AB7" s="155"/>
-      <c r="AC7" s="156"/>
-      <c r="AD7" s="156"/>
-      <c r="AE7" s="156"/>
-      <c r="AF7" s="156"/>
-      <c r="AG7" s="157"/>
+      <c r="AB7" s="146"/>
+      <c r="AC7" s="147"/>
+      <c r="AD7" s="147"/>
+      <c r="AE7" s="147"/>
+      <c r="AF7" s="147"/>
+      <c r="AG7" s="148"/>
     </row>
     <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="128"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="151" t="s">
+      <c r="A8" s="127"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="161" t="s">
         <v>244</v>
       </c>
-      <c r="O8" s="151"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="151"/>
-      <c r="R8" s="151"/>
-      <c r="AB8" s="155"/>
-      <c r="AC8" s="156"/>
-      <c r="AD8" s="156"/>
-      <c r="AE8" s="156"/>
-      <c r="AF8" s="156"/>
-      <c r="AG8" s="157"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="161"/>
+      <c r="Q8" s="161"/>
+      <c r="R8" s="161"/>
+      <c r="AB8" s="146"/>
+      <c r="AC8" s="147"/>
+      <c r="AD8" s="147"/>
+      <c r="AE8" s="147"/>
+      <c r="AF8" s="147"/>
+      <c r="AG8" s="148"/>
     </row>
     <row r="9" spans="1:33" s="34" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
@@ -8523,16 +8521,16 @@
       <c r="E9" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="147" t="s">
+      <c r="F9" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="148"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="141" t="s">
+      <c r="G9" s="159"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="142"/>
-      <c r="K9" s="143"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="158"/>
       <c r="L9" s="39" t="s">
         <v>108</v>
       </c>
@@ -8548,16 +8546,16 @@
       <c r="P9" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="Q9" s="147" t="s">
+      <c r="Q9" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="R9" s="149"/>
-      <c r="AB9" s="155"/>
-      <c r="AC9" s="156"/>
-      <c r="AD9" s="156"/>
-      <c r="AE9" s="156"/>
-      <c r="AF9" s="156"/>
-      <c r="AG9" s="157"/>
+      <c r="R9" s="139"/>
+      <c r="AB9" s="146"/>
+      <c r="AC9" s="147"/>
+      <c r="AD9" s="147"/>
+      <c r="AE9" s="147"/>
+      <c r="AF9" s="147"/>
+      <c r="AG9" s="148"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
@@ -8593,12 +8591,12 @@
         <v>40</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="AB10" s="155"/>
-      <c r="AC10" s="156"/>
-      <c r="AD10" s="156"/>
-      <c r="AE10" s="156"/>
-      <c r="AF10" s="156"/>
-      <c r="AG10" s="157"/>
+      <c r="AB10" s="146"/>
+      <c r="AC10" s="147"/>
+      <c r="AD10" s="147"/>
+      <c r="AE10" s="147"/>
+      <c r="AF10" s="147"/>
+      <c r="AG10" s="148"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
@@ -8633,21 +8631,21 @@
       <c r="L11" s="72">
         <v>40</v>
       </c>
-      <c r="AB11" s="155"/>
-      <c r="AC11" s="156"/>
-      <c r="AD11" s="156"/>
-      <c r="AE11" s="156"/>
-      <c r="AF11" s="156"/>
-      <c r="AG11" s="157"/>
+      <c r="AB11" s="146"/>
+      <c r="AC11" s="147"/>
+      <c r="AD11" s="147"/>
+      <c r="AE11" s="147"/>
+      <c r="AF11" s="147"/>
+      <c r="AG11" s="148"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Q12" s="46"/>
-      <c r="AB12" s="155"/>
-      <c r="AC12" s="156"/>
-      <c r="AD12" s="156"/>
-      <c r="AE12" s="156"/>
-      <c r="AF12" s="156"/>
-      <c r="AG12" s="157"/>
+      <c r="AB12" s="146"/>
+      <c r="AC12" s="147"/>
+      <c r="AD12" s="147"/>
+      <c r="AE12" s="147"/>
+      <c r="AF12" s="147"/>
+      <c r="AG12" s="148"/>
     </row>
     <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="136" t="s">
@@ -8677,41 +8675,41 @@
       <c r="W13" s="137"/>
       <c r="X13" s="137"/>
       <c r="Y13" s="137"/>
-      <c r="AB13" s="158"/>
-      <c r="AC13" s="159"/>
-      <c r="AD13" s="159"/>
-      <c r="AE13" s="159"/>
-      <c r="AF13" s="159"/>
-      <c r="AG13" s="160"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="150"/>
+      <c r="AD13" s="150"/>
+      <c r="AE13" s="150"/>
+      <c r="AF13" s="150"/>
+      <c r="AG13" s="151"/>
     </row>
     <row r="14" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="130"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="131"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="131"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="138" t="s">
+      <c r="A14" s="133"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="134"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="140" t="s">
         <v>246</v>
       </c>
-      <c r="U14" s="139"/>
-      <c r="V14" s="139"/>
-      <c r="W14" s="139"/>
-      <c r="X14" s="139"/>
-      <c r="Y14" s="140"/>
+      <c r="U14" s="141"/>
+      <c r="V14" s="141"/>
+      <c r="W14" s="141"/>
+      <c r="X14" s="141"/>
+      <c r="Y14" s="142"/>
       <c r="Z14" s="76"/>
       <c r="AA14" s="76"/>
     </row>
@@ -8731,26 +8729,26 @@
       <c r="E15" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="161" t="s">
+      <c r="F15" s="155" t="s">
         <v>248</v>
       </c>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="141" t="s">
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="156" t="s">
         <v>249</v>
       </c>
-      <c r="J15" s="142"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="144" t="s">
+      <c r="J15" s="157"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="152" t="s">
         <v>250</v>
       </c>
-      <c r="M15" s="145"/>
-      <c r="N15" s="146"/>
-      <c r="O15" s="144" t="s">
+      <c r="M15" s="153"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="152" t="s">
         <v>251</v>
       </c>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="146"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="154"/>
       <c r="R15" s="39" t="s">
         <v>71</v>
       </c>
@@ -8769,10 +8767,10 @@
       <c r="W15" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="X15" s="147" t="s">
+      <c r="X15" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="Y15" s="149"/>
+      <c r="Y15" s="139"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
@@ -8851,14 +8849,14 @@
       <c r="I19" s="78"/>
       <c r="J19" s="78"/>
       <c r="K19" s="78"/>
-      <c r="L19" s="138" t="s">
+      <c r="L19" s="140" t="s">
         <v>245</v>
       </c>
-      <c r="M19" s="139"/>
-      <c r="N19" s="139"/>
-      <c r="O19" s="139"/>
-      <c r="P19" s="139"/>
-      <c r="Q19" s="140"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="141"/>
+      <c r="Q19" s="142"/>
     </row>
     <row r="20" spans="1:20" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
@@ -8876,16 +8874,16 @@
       <c r="E20" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="161" t="s">
+      <c r="F20" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="144" t="s">
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="152" t="s">
         <v>152</v>
       </c>
-      <c r="J20" s="145"/>
-      <c r="K20" s="146"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="154"/>
       <c r="L20" s="75" t="s">
         <v>109</v>
       </c>
@@ -8898,10 +8896,10 @@
       <c r="O20" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="147" t="s">
+      <c r="P20" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="Q20" s="149"/>
+      <c r="Q20" s="139"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
@@ -8950,18 +8948,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="AB2:AG13"/>
-    <mergeCell ref="A13:Y13"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="A14:S14"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I20:K20"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="N2:S2"/>
@@ -8976,6 +8962,18 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="A7:R7"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="AB2:AG13"/>
+    <mergeCell ref="A13:Y13"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8998,21 +8996,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="127" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="F1" s="117" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="F1" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="119"/>
-      <c r="I1" s="117" t="s">
+      <c r="G1" s="85"/>
+      <c r="I1" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="119"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="85"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
